--- a/dist/document/product_doctor/lan.xlsx
+++ b/dist/document/product_doctor/lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khailv/Desktop/lamgift/dist/document/product_doctor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2265CAE8-760A-5640-B4FB-37A276F22F46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4DB32E-7EC1-9B49-A227-62FEB7D0A623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="680" windowWidth="20960" windowHeight="16740" activeTab="1" xr2:uid="{EC198BD0-BD87-504A-9348-023B77747D89}"/>
+    <workbookView xWindow="4140" yWindow="1080" windowWidth="20960" windowHeight="16740" activeTab="1" xr2:uid="{EC198BD0-BD87-504A-9348-023B77747D89}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -257,55 +257,55 @@
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>BON008</v>
+            <v>BAN003</v>
           </cell>
           <cell r="C3" t="str">
-            <v>Bonzacim (Rosuvastatin 10mg)</v>
+            <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
           </cell>
           <cell r="D3">
-            <v>8900</v>
+            <v>6900</v>
           </cell>
           <cell r="E3">
-            <v>55</v>
+            <v>52</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4" t="str">
-            <v>OME001</v>
+            <v>BON008</v>
           </cell>
           <cell r="C4" t="str">
-            <v>BS One (Omega3 Fish Oil 1000mg)</v>
+            <v>Bonzacim (Rosuvastatin 10mg)</v>
           </cell>
           <cell r="D4">
-            <v>4000</v>
+            <v>8900</v>
           </cell>
           <cell r="E4">
-            <v>45</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>CAR007</v>
+            <v>OME001</v>
           </cell>
           <cell r="C5" t="str">
-            <v>Cardorite (Rosuvastatin 20mg)</v>
+            <v>BS One (Omega3 Fish Oil 1000mg)</v>
           </cell>
           <cell r="D5">
-            <v>13000</v>
+            <v>4000</v>
           </cell>
           <cell r="E5">
-            <v>55</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>CEF033</v>
+            <v>CAR007</v>
           </cell>
           <cell r="C6" t="str">
-            <v>Cefass (Etoricoxib 90mg)</v>
+            <v>Cardorite (Rosuvastatin 20mg)</v>
           </cell>
           <cell r="D6">
-            <v>9000</v>
+            <v>13000</v>
           </cell>
           <cell r="E6">
             <v>55</v>
@@ -313,41 +313,41 @@
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>CEL019</v>
+            <v>CEF033</v>
           </cell>
           <cell r="C7" t="str">
-            <v>Celevox (Levofloxacin 500mg)</v>
+            <v>Cefass (Etoricoxib 90mg)</v>
           </cell>
           <cell r="D7">
-            <v>12000</v>
+            <v>9000</v>
           </cell>
           <cell r="E7">
-            <v>42</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>CEL003</v>
+            <v>CEL019</v>
           </cell>
           <cell r="C8" t="str">
-            <v>Celivite (Multivitamin &amp; Minerals)</v>
+            <v>Celevox (Levofloxacin 500mg)</v>
           </cell>
           <cell r="D8">
-            <v>3000</v>
+            <v>12000</v>
           </cell>
           <cell r="E8">
-            <v>55</v>
+            <v>42</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>ROW002</v>
+            <v>CEL003</v>
           </cell>
           <cell r="C9" t="str">
-            <v>Chondrasil (Allopurinol 300mg)</v>
+            <v>Celivite (Multivitamin &amp; Minerals)</v>
           </cell>
           <cell r="D9">
-            <v>3700</v>
+            <v>3000</v>
           </cell>
           <cell r="E9">
             <v>55</v>
@@ -355,27 +355,27 @@
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>CLE002</v>
+            <v>ROW002</v>
           </cell>
           <cell r="C10" t="str">
-            <v>Cimrinat (Clarithomycin 500mg)</v>
+            <v>Chondrasil (Allopurinol 300mg)</v>
           </cell>
           <cell r="D10">
-            <v>24000</v>
+            <v>3700</v>
           </cell>
           <cell r="E10">
-            <v>52</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>ESO002</v>
+            <v>CLE002</v>
           </cell>
           <cell r="C11" t="str">
-            <v>Esofar (Esomeprazole 40mg)</v>
+            <v>Cimrinat (Clarithomycin 500mg)</v>
           </cell>
           <cell r="D11">
-            <v>14000</v>
+            <v>24000</v>
           </cell>
           <cell r="E11">
             <v>52</v>
@@ -383,27 +383,27 @@
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>ERA001</v>
+            <v>ESO002</v>
           </cell>
           <cell r="C12" t="str">
-            <v>Esotrax (Esomeprazole 20mg)</v>
+            <v>Esofar (Esomeprazole 40mg)</v>
           </cell>
           <cell r="D12">
-            <v>10800</v>
+            <v>14000</v>
           </cell>
           <cell r="E12">
-            <v>50</v>
+            <v>52</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>FAG001</v>
+            <v>ERA001</v>
           </cell>
           <cell r="C13" t="str">
-            <v>Fagendol (Flunarizine 5mg)</v>
+            <v>Esotrax (Esomeprazole 20mg)</v>
           </cell>
           <cell r="D13">
-            <v>2600</v>
+            <v>10800</v>
           </cell>
           <cell r="E13">
             <v>50</v>
@@ -411,69 +411,69 @@
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>HEM005</v>
+            <v>FAG001</v>
           </cell>
           <cell r="C14" t="str">
-            <v>Hemol (Methocarbamol 750mg)</v>
+            <v>Fagendol (Flunarizine 5mg)</v>
           </cell>
           <cell r="D14">
-            <v>3100</v>
+            <v>2600</v>
           </cell>
           <cell r="E14">
-            <v>37</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>LOX002</v>
+            <v>HEM005</v>
           </cell>
           <cell r="C15" t="str">
-            <v>Loxcip (Fexofenadine 180mg)</v>
+            <v>Hemol (Methocarbamol 750mg)</v>
           </cell>
           <cell r="D15">
-            <v>4700</v>
+            <v>3100</v>
           </cell>
           <cell r="E15">
-            <v>40</v>
+            <v>37</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>LUC001</v>
+            <v>LOX002</v>
           </cell>
           <cell r="C16" t="str">
-            <v>Lucass 200 (Cefpodoxime)</v>
+            <v>Loxcip (Fexofenadine 180mg)</v>
           </cell>
           <cell r="D16">
-            <v>14700</v>
+            <v>4700</v>
           </cell>
           <cell r="E16">
-            <v>54</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>MAX008</v>
+            <v>LUC001</v>
           </cell>
           <cell r="C17" t="str">
-            <v>Maxezole 40 (Esomeprazole 40mg)</v>
+            <v>Lucass 200 (Cefpodoxime)</v>
           </cell>
           <cell r="D17">
-            <v>14000</v>
+            <v>14700</v>
           </cell>
           <cell r="E17">
-            <v>55</v>
+            <v>54</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>MEX001</v>
+            <v>MAX008</v>
           </cell>
           <cell r="C18" t="str">
-            <v>Mexams (Montelukast 5mg)</v>
+            <v>Maxezole 40 (Esomeprazole 40mg)</v>
           </cell>
           <cell r="D18">
-            <v>5100</v>
+            <v>14000</v>
           </cell>
           <cell r="E18">
             <v>55</v>
@@ -481,195 +481,195 @@
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>TRI025</v>
+            <v>MEX001</v>
           </cell>
           <cell r="C19" t="str">
-            <v>Noraquick (Gabapentin 300mg)</v>
+            <v>Mexams (Montelukast 5mg)</v>
           </cell>
           <cell r="D19">
-            <v>6000</v>
+            <v>5100</v>
           </cell>
           <cell r="E19">
-            <v>54</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>SOF001</v>
+            <v>TRI025</v>
           </cell>
           <cell r="C20" t="str">
-            <v>Oftofacin (Atorvastatin 20mg)</v>
+            <v>Noraquick (Gabapentin 300mg)</v>
           </cell>
           <cell r="D20">
-            <v>5000</v>
+            <v>6000</v>
           </cell>
           <cell r="E20">
-            <v>52</v>
+            <v>54</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>OPT001</v>
+            <v>SOF001</v>
           </cell>
           <cell r="C21" t="str">
-            <v>Optipan (Diacerhein 50mg)</v>
+            <v>Oftofacin (Atorvastatin 20mg)</v>
           </cell>
           <cell r="D21">
-            <v>9900</v>
+            <v>5000</v>
           </cell>
           <cell r="E21">
-            <v>40</v>
+            <v>52</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>OPE003</v>
+            <v>OPT001</v>
           </cell>
           <cell r="C22" t="str">
-            <v>Originko (Ginkgo biloba 80mg)</v>
+            <v>Optipan (Diacerhein 50mg)</v>
           </cell>
           <cell r="D22">
-            <v>8800</v>
+            <v>9900</v>
           </cell>
           <cell r="E22">
-            <v>37</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>PAL001</v>
+            <v>OPE003</v>
           </cell>
           <cell r="C23" t="str">
-            <v>Palibone (Alendronic 70mg)</v>
+            <v>Originko (Ginkgo biloba 80mg)</v>
           </cell>
           <cell r="D23">
-            <v>75000</v>
+            <v>8800</v>
           </cell>
           <cell r="E23">
-            <v>40</v>
+            <v>37</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>MER004</v>
+            <v>PAL001</v>
           </cell>
           <cell r="C24" t="str">
-            <v>Pangelong (Rebamipide 100mg)</v>
+            <v>Palibone (Alendronic 70mg)</v>
           </cell>
           <cell r="D24">
-            <v>4400</v>
+            <v>75000</v>
           </cell>
           <cell r="E24">
-            <v>43</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>RAB003</v>
+            <v>MER004</v>
           </cell>
           <cell r="C25" t="str">
-            <v>Pharcotinex</v>
+            <v>Pangelong (Rebamipide 100mg)</v>
           </cell>
           <cell r="D25">
-            <v>3600</v>
+            <v>4400</v>
           </cell>
           <cell r="E25">
-            <v>35</v>
+            <v>43</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>PIC002</v>
+            <v>RAB003</v>
           </cell>
           <cell r="C26" t="str">
-            <v>Picencal (Calcium &amp; Vitamin D)</v>
+            <v>Pharcotinex</v>
           </cell>
           <cell r="D26">
-            <v>2900</v>
+            <v>3600</v>
           </cell>
           <cell r="E26">
-            <v>45</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>SAG001</v>
+            <v>PIC002</v>
           </cell>
           <cell r="C27" t="str">
-            <v>Sagason (Clopidogrel 75mg)</v>
+            <v>Picencal (Calcium &amp; Vitamin D)</v>
           </cell>
           <cell r="D27">
-            <v>7000</v>
+            <v>2900</v>
           </cell>
           <cell r="E27">
-            <v>54</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>SAN009</v>
+            <v>SAG001</v>
           </cell>
           <cell r="C28" t="str">
-            <v>Sanaperol (Rabeprazol 20mg)</v>
+            <v>Sagason (Clopidogrel 75mg)</v>
           </cell>
           <cell r="D28">
-            <v>7900</v>
+            <v>7000</v>
           </cell>
           <cell r="E28">
-            <v>53</v>
+            <v>54</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>SOF003</v>
+            <v>SAN009</v>
           </cell>
           <cell r="C29" t="str">
-            <v>Sopezid (Esomeprazole 40mg)</v>
+            <v>Sanaperol (Rabeprazol 20mg)</v>
           </cell>
           <cell r="D29">
-            <v>15000</v>
+            <v>7900</v>
           </cell>
           <cell r="E29">
-            <v>55</v>
+            <v>53</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>TAL005</v>
+            <v>SOF003</v>
           </cell>
           <cell r="C30" t="str">
-            <v>Talroma (Tiropramide 100mg)</v>
+            <v>Sopezid (Esomeprazole 40mg)</v>
           </cell>
           <cell r="D30">
-            <v>4500</v>
+            <v>15000</v>
           </cell>
           <cell r="E30">
-            <v>44</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>TAR004</v>
+            <v>TAL005</v>
           </cell>
           <cell r="C31" t="str">
-            <v>Tarfloz (Ferrous fumarate 300mg)</v>
+            <v>Talroma (Tiropramide 100mg)</v>
           </cell>
           <cell r="D31">
-            <v>3600</v>
+            <v>4500</v>
           </cell>
           <cell r="E31">
-            <v>55</v>
+            <v>44</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>UVO001</v>
+            <v>TAR004</v>
           </cell>
           <cell r="C32" t="str">
-            <v>Uvomo (Mosaprid citrat 5mg)</v>
+            <v>Tarfloz (Ferrous fumarate 300mg)</v>
           </cell>
           <cell r="D32">
-            <v>3300</v>
+            <v>3600</v>
           </cell>
           <cell r="E32">
             <v>55</v>
@@ -677,29 +677,57 @@
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>VIN005</v>
+            <v>TRI022</v>
           </cell>
           <cell r="C33" t="str">
-            <v>Vinsalamin (Mesalamin 400mg)</v>
+            <v>Trisova (Trimetazidine 20mg)</v>
           </cell>
           <cell r="D33">
-            <v>7999.9989999999998</v>
+            <v>1700</v>
           </cell>
           <cell r="E33">
-            <v>40</v>
+            <v>43</v>
           </cell>
         </row>
         <row r="34">
           <cell r="B34" t="str">
+            <v>UVO001</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>Uvomo (Mosaprid citrat 5mg)</v>
+          </cell>
+          <cell r="D34">
+            <v>3300</v>
+          </cell>
+          <cell r="E34">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>VIN005</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>Vinsalamin (Mesalamin 400mg)</v>
+          </cell>
+          <cell r="D35">
+            <v>7999.9989999999998</v>
+          </cell>
+          <cell r="E35">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
             <v>ZAN002</v>
           </cell>
-          <cell r="C34" t="str">
+          <cell r="C36" t="str">
             <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
           </cell>
-          <cell r="D34">
+          <cell r="D36">
             <v>6926</v>
           </cell>
-          <cell r="E34">
+          <cell r="E36">
             <v>40</v>
           </cell>
         </row>
@@ -1523,7 +1551,7 @@
             <v>108</v>
           </cell>
           <cell r="B102" t="str">
-            <v>Trường Hoàng Anh Thư</v>
+            <v>Trương Hoàng Anh Thư</v>
           </cell>
         </row>
         <row r="103">
@@ -1606,8 +1634,88 @@
             <v>Nguyễn Hữu Hoàn</v>
           </cell>
         </row>
+        <row r="113">
+          <cell r="A113">
+            <v>103</v>
+          </cell>
+          <cell r="B113" t="str">
+            <v>Hoàng Tường</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114">
+            <v>93</v>
+          </cell>
+          <cell r="B114" t="str">
+            <v>Bùi Văn Kiệt</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115">
+            <v>215</v>
+          </cell>
+          <cell r="B115" t="str">
+            <v>Nguyễn Thị Thu Thảo</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116">
+            <v>172</v>
+          </cell>
+          <cell r="B116" t="str">
+            <v>Trương Thị Mỹ Hoàng</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117">
+            <v>84</v>
+          </cell>
+          <cell r="B117" t="str">
+            <v>Nguyễn Tuấn Cường</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118">
+            <v>91</v>
+          </cell>
+          <cell r="B118" t="str">
+            <v>Trương Ngọc Lễ</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119">
+            <v>158</v>
+          </cell>
+          <cell r="B119" t="str">
+            <v>Trần Anh Tuấn</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120">
+            <v>87</v>
+          </cell>
+          <cell r="B120" t="str">
+            <v>Lê Trọng Quý</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121">
+            <v>3</v>
+          </cell>
+          <cell r="B121" t="str">
+            <v>Tạ Kim Liên</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122">
+            <v>100</v>
+          </cell>
+          <cell r="B122" t="str">
+            <v>Nguyễn Văn Hiền</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1949,10 +2057,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8FE71F-5EFF-6041-BE28-D4CEB2AE74F8}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2234,78 +2342,6 @@
         <v>Trương Công Thành</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="9" t="e">
-        <f>VLOOKUP($E23, [2]Index!$A$2:$B$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="9" t="e">
-        <f>VLOOKUP($E24, [2]Index!$A$2:$B$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="9" t="e">
-        <f>VLOOKUP($E25, [2]Index!$A$2:$B$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="9" t="e">
-        <f>VLOOKUP($E26, [2]Index!$A$2:$B$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="9" t="e">
-        <f>VLOOKUP($E27, [2]Index!$A$2:$B$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="9" t="e">
-        <f>VLOOKUP($E28, [2]Index!$A$2:$B$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="9" t="e">
-        <f>VLOOKUP($E29, [2]Index!$A$2:$B$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F30" s="9" t="e">
-        <f>VLOOKUP($E30, [2]Index!$A$2:$B$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F31" s="9" t="e">
-        <f>VLOOKUP($E31, [2]Index!$A$2:$B$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F32" s="9" t="e">
-        <f>VLOOKUP($E32, [2]Index!$A$2:$B$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F33" s="9" t="e">
-        <f>VLOOKUP($E33, [2]Index!$A$2:$B$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F34" s="9" t="e">
-        <f>VLOOKUP($E34, [2]Index!$A$2:$B$300, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:F5" xr:uid="{A954C76C-B696-D34B-A919-448F4AC0AEC0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
